--- a/Labyrinth2/Excel/level.xlsx
+++ b/Labyrinth2/Excel/level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15705" windowHeight="6645"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -59,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -74,15 +74,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,18 +87,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -117,17 +109,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,30 +134,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,14 +179,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -211,7 +211,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,19 +232,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,7 +370,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,151 +394,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,16 +457,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,16 +505,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,8 +522,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,15 +538,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -546,10 +546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,133 +558,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -692,14 +692,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1095,503 +1095,761 @@
   <sheetPr/>
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="D2 H4"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:4">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>1001</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="2">
+        <v>1005</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="2">
+        <v>1008</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="2">
+        <v>1009</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="2">
+        <v>1010</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="2">
+        <v>1011</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="2">
+        <v>1012</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" ht="25" customHeight="1" spans="1:4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="2">
+        <v>1013</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" ht="25" customHeight="1" spans="1:4">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="2">
+        <v>1014</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="2">
+        <v>1015</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="2">
+        <v>1016</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" ht="25" customHeight="1" spans="1:4">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="2">
+        <v>1017</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="22" ht="25" customHeight="1" spans="1:4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="2">
+        <v>1018</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="2">
+        <v>1019</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="2">
+        <v>1020</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="2">
+        <v>1021</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="26" ht="25" customHeight="1" spans="1:4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="2">
+        <v>1022</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="27" ht="25" customHeight="1" spans="1:4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="A27" s="2">
+        <v>1023</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="28" ht="25" customHeight="1" spans="1:4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="A28" s="2">
+        <v>1024</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:4">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:4">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="2">
+        <v>1026</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="31" ht="25" customHeight="1" spans="1:4">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="2">
+        <v>1027</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="32" ht="25" customHeight="1" spans="1:4">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="A32" s="2">
+        <v>1028</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="33" ht="25" customHeight="1" spans="1:4">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="2">
+        <v>1029</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:4">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="A34" s="2">
+        <v>1030</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:4">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="2">
+        <v>1031</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="36" ht="25" customHeight="1" spans="1:4">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="2">
+        <v>1032</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="37" ht="25" customHeight="1" spans="1:4">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="A37" s="2">
+        <v>1033</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="38" ht="25" customHeight="1" spans="1:4">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" ht="25" customHeight="1" spans="1:4">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
     </row>
     <row r="40" ht="25" customHeight="1" spans="1:4">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" ht="25" customHeight="1" spans="1:4">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
     </row>
     <row r="42" ht="25" customHeight="1" spans="1:4">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" ht="25" customHeight="1" spans="1:4">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" ht="25" customHeight="1" spans="1:4">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
     </row>
     <row r="45" ht="25" customHeight="1" spans="1:4">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
     </row>
     <row r="46" ht="25" customHeight="1" spans="1:4">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
     </row>
     <row r="47" ht="25" customHeight="1" spans="1:4">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
     </row>
     <row r="48" ht="25" customHeight="1" spans="1:4">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" ht="25" customHeight="1" spans="1:4">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
     </row>
     <row r="50" ht="25" customHeight="1" spans="1:4">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" ht="25" customHeight="1" spans="1:4">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
     </row>
     <row r="52" ht="25" customHeight="1" spans="1:4">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
     </row>
     <row r="53" ht="25" customHeight="1" spans="1:4">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
     </row>
     <row r="54" ht="25" customHeight="1" spans="1:4">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
     </row>
     <row r="55" ht="25" customHeight="1" spans="1:4">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" ht="25" customHeight="1" spans="1:4">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
     </row>
     <row r="57" ht="25" customHeight="1" spans="1:4">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
     </row>
     <row r="58" ht="25" customHeight="1" spans="1:4">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
     </row>
     <row r="59" ht="25" customHeight="1" spans="1:4">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
     </row>
     <row r="60" ht="25" customHeight="1" spans="1:4">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
     </row>
     <row r="61" ht="25" customHeight="1" spans="1:4">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
     </row>
     <row r="62" ht="25" customHeight="1" spans="1:4">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
     </row>
     <row r="63" ht="25" customHeight="1" spans="1:4">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
     </row>
     <row r="64" ht="25" customHeight="1" spans="1:4">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
     </row>
     <row r="65" ht="25" customHeight="1" spans="1:4">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
     </row>
     <row r="66" ht="25" customHeight="1" spans="1:4">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
     </row>
     <row r="67" ht="25" customHeight="1" spans="1:4">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
     </row>
     <row r="68" ht="25" customHeight="1" spans="1:4">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
     </row>
     <row r="69" ht="25" customHeight="1" spans="1:4">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
     </row>
     <row r="70" ht="25" customHeight="1" spans="1:4">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
     </row>
     <row r="71" ht="25" customHeight="1" spans="1:4">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
     </row>
     <row r="72" ht="25" customHeight="1" spans="1:4">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
     </row>
     <row r="73" ht="25" customHeight="1" spans="1:4">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
     </row>
     <row r="74" ht="25" customHeight="1" spans="1:4">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B5:D5">
+  <conditionalFormatting sqref="B5:D5 B7:D7 B9:D9 B11:D11 B13:D14 B16:D16 B18:D18 B21:D22 B29:D30 B37:D37 B24:D24 B32:D32 B26:D26 B34:D34">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>-1</formula>
     </cfRule>
@@ -1626,7 +1884,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
+  <conditionalFormatting sqref="B5 B7 B9 B11 B13:B14 B16 B18 B21:B22 B29:B30 B37 B24 B32 B26 B34">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/Labyrinth2/Excel/level.xlsx
+++ b/Labyrinth2/Excel/level.xlsx
@@ -51,7 +51,7 @@
     <t>labyrinth1001</t>
   </si>
   <si>
-    <t>LevelMap1001</t>
+    <t>LevelMap10_13</t>
   </si>
 </sst>
 </file>
@@ -59,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -73,23 +73,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,7 +96,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,8 +133,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,17 +188,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,7 +211,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,187 +232,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,6 +441,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -452,6 +467,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,36 +519,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -546,10 +546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,34 +558,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,34 +594,37 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -633,58 +633,58 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,8 +1095,8 @@
   <sheetPr/>
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1849,7 +1849,12 @@
       <c r="D74" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B5:D5 B7:D7 B9:D9 B11:D11 B13:D14 B16:D16 B18:D18 B21:D22 B29:D30 B37:D37 B24:D24 B32:D32 B26:D26 B34:D34">
+  <conditionalFormatting sqref="B5 B7 B9 B11 B13:B14 B16 B18 B21:B22 B29:B30 B37 B24 B32 B26 B34">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:D5 B7:D7 B9:D9 B11:D11 B13:C14 B16:C16 B18:C18 B21:C22 B29:C30 B37:D37 B24:C24 B32:C32 B26:C26 B34:C34 D13 D15 D17 D19 D21 D23 D25 D27 D29 D31 D33 D35">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>-1</formula>
     </cfRule>
@@ -1881,11 +1886,6 @@
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5 B7 B9 B11 B13:B14 B16 B18 B21:B22 B29:B30 B37 B24 B32 B26 B34">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
